--- a/biology/Médecine/1196_en_santé_et_médecine/1196_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1196_en_santé_et_médecine/1196_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1196_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1196_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1196 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1196_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1196_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Une charte de Guilhem VIII, seigneur de Montpellier, fils de la duchesse Mathilde, libéralise l'enseignement de la médecine dans sa ville[1].
-Fondation à Villamartin, près La Tiendas en Andalousie, d'un hôpital destiné aux lépreux et aux « pauvres du Christ », qui fonctionnera jusqu'au XVIIIe siècle puis sera transféré à Villalcazar de Sirga au royaume de Leon[2].
-Fondation de l'hôpital de Guise, par Adeline, dame du lieu[3].
-Le vicomte Alard et Uda, sa femme, fondent à Nimègue, ville du Saint-Empire, un hôpital qu'ils confient aux frères de Saint-Jean de Jérusalem[4].
-Rédaction des règlements de l'hôpital Saint-Jean de Gand, en Flandre[5].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Une charte de Guilhem VIII, seigneur de Montpellier, fils de la duchesse Mathilde, libéralise l'enseignement de la médecine dans sa ville.
+Fondation à Villamartin, près La Tiendas en Andalousie, d'un hôpital destiné aux lépreux et aux « pauvres du Christ », qui fonctionnera jusqu'au XVIIIe siècle puis sera transféré à Villalcazar de Sirga au royaume de Leon.
+Fondation de l'hôpital de Guise, par Adeline, dame du lieu.
+Le vicomte Alard et Uda, sa femme, fondent à Nimègue, ville du Saint-Empire, un hôpital qu'ils confient aux frères de Saint-Jean de Jérusalem.
+Rédaction des règlements de l'hôpital Saint-Jean de Gand, en Flandre.</t>
         </is>
       </c>
     </row>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1196_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1196_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,12 +559,14 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Fl. Geoffroi, médecin, abandonne à l'abbaye cistercienne de Fontmorigny en Nivernais, dans l'actuel département du Cher, ses droits sur le moulin de Haute-Fière[6].
-Fl. Petronus Johannis, qualifié de « medicus » dans un acte concernant la propriété d'un moulin près de Messine en Sicile[7].
-Avant 1196 : fl. Richard, médecin, propriétaire, sans doute à Til-Châtel en Bourgogne[8].
-1196 au plus tard : fl. Petrus, qualifié de « medicus » dans un acte de donation de Suriana, sa veuve, au chapitre de Santa Maria de Corato, dans les Pouilles, en Italie[7].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Fl. Geoffroi, médecin, abandonne à l'abbaye cistercienne de Fontmorigny en Nivernais, dans l'actuel département du Cher, ses droits sur le moulin de Haute-Fière.
+Fl. Petronus Johannis, qualifié de « medicus » dans un acte concernant la propriété d'un moulin près de Messine en Sicile.
+Avant 1196 : fl. Richard, médecin, propriétaire, sans doute à Til-Châtel en Bourgogne.
+1196 au plus tard : fl. Petrus, qualifié de « medicus » dans un acte de donation de Suriana, sa veuve, au chapitre de Santa Maria de Corato, dans les Pouilles, en Italie.</t>
         </is>
       </c>
     </row>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1196_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1196_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,9 +594,11 @@
           <t>Naissance</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Schem-Tob ben Ishak (mort à une date inconnue), médecin juif catalan, établi à Marseille, auteur d'une traduction en hébreu (1254) du Kitab al-Tasrif d'Aboulcassis sous le titre de Sefer ha-Schimusch[9].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Schem-Tob ben Ishak (mort à une date inconnue), médecin juif catalan, établi à Marseille, auteur d'une traduction en hébreu (1254) du Kitab al-Tasrif d'Aboulcassis sous le titre de Sefer ha-Schimusch.
 </t>
         </is>
       </c>
